--- a/Paper_model/Prophet/Summary-Prophet-1H.xlsx
+++ b/Paper_model/Prophet/Summary-Prophet-1H.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nptu\Documents\GitHub\Market-Sentiment-Analysis\Paper_model\Prophet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nptu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F411A39-B7D9-43C2-A2E0-85A93CEC3957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C5D19-B1F5-4D97-B912-2250860624D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -46,16 +46,52 @@
     <t>best_fouriers</t>
   </si>
   <si>
-    <t>BTCUSDT-1h</t>
+    <t>BTCUSD-1h</t>
+  </si>
+  <si>
+    <t>ETHUSD-1h</t>
+  </si>
+  <si>
+    <t>USDCUSD-1h</t>
+  </si>
+  <si>
+    <t>USDTUSD-1h</t>
+  </si>
+  <si>
+    <t>BNBUSD-1h</t>
   </si>
   <si>
     <t>Prophet</t>
   </si>
   <si>
-    <t>{'fourier_order': 5, 'name': 'myweek', 'period': 72}</t>
-  </si>
-  <si>
-    <t>ETHUSDT-1h</t>
+    <t>{'fourier_order': 15, 'name': 'myweek', 'period': 12}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 25, 'name': 'myweek', 'period': 120}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 5, 'name': 'myweek', 'period': 84}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 20, 'name': 'myweek', 'period': 72}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 10, 'name': 'myweek', 'period': 36}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 5, 'name': 'myweek', 'period': 120}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 5, 'name': 'myweek', 'period': 12}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 10, 'name': 'myweek', 'period': 108}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 10, 'name': 'myweek', 'period': 12}</t>
+  </si>
+  <si>
+    <t>{'fourier_order': 15, 'name': 'myweek', 'period': 24}</t>
   </si>
 </sst>
 </file>
@@ -73,9 +109,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -143,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +220,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -251,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,101 +466,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>58.845045252838638</v>
+      </c>
+      <c r="F2">
+        <v>88.104343479425097</v>
+      </c>
+      <c r="G2">
+        <v>971.90744436312207</v>
+      </c>
+      <c r="H2">
+        <v>1053.722688812946</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>76.815260444753989</v>
+      </c>
+      <c r="F3">
+        <v>125.65820121220131</v>
+      </c>
+      <c r="G3">
+        <v>13643.578979847451</v>
+      </c>
+      <c r="H3">
+        <v>16181.96509921661</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>77.343105687406421</v>
+      </c>
+      <c r="F4">
+        <v>126.3061975214096</v>
+      </c>
+      <c r="G4">
+        <v>282.60688035033888</v>
+      </c>
+      <c r="H4">
+        <v>359.69246474707239</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>0.3</v>
       </c>
-      <c r="D2">
-        <v>70.447422085450782</v>
-      </c>
-      <c r="E2">
-        <v>121.0552590414329</v>
-      </c>
-      <c r="F2">
-        <v>119.01881740065041</v>
-      </c>
-      <c r="G2">
-        <v>154.78019637583469</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E5">
+        <v>3.5587111762051959</v>
+      </c>
+      <c r="F5">
+        <v>5.5019827289247241</v>
+      </c>
+      <c r="G5">
+        <v>86.539916873696541</v>
+      </c>
+      <c r="H5">
+        <v>107.9838847221266</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>4.2254127311391558</v>
+      </c>
+      <c r="F6">
+        <v>6.8051593495828726</v>
+      </c>
+      <c r="G6">
+        <v>155.75476796752139</v>
+      </c>
+      <c r="H6">
+        <v>197.70315636341479</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>4.3898236796148433</v>
+      </c>
+      <c r="F7">
+        <v>7.1808834389351253</v>
+      </c>
+      <c r="G7">
+        <v>12.668622690849411</v>
+      </c>
+      <c r="H7">
+        <v>15.47189294070485</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>5.8565626740225052E-5</v>
+      </c>
+      <c r="F8">
+        <v>7.8459905991884259E-5</v>
+      </c>
+      <c r="G8">
+        <v>3.9648120485424968E-4</v>
+      </c>
+      <c r="H8">
+        <v>4.865713812441969E-4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>6.3747261012277558E-5</v>
+      </c>
+      <c r="F9">
+        <v>8.5501496606117482E-5</v>
+      </c>
+      <c r="G9">
+        <v>5.6243580794021627E-4</v>
+      </c>
+      <c r="H9">
+        <v>6.1890646144083792E-4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>6.4414269334246729E-5</v>
+      </c>
+      <c r="F10">
+        <v>8.6126088410531441E-5</v>
+      </c>
+      <c r="G10">
+        <v>2.0386141550276469E-4</v>
+      </c>
+      <c r="H10">
+        <v>2.4810682708675808E-4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
         <v>0.3</v>
       </c>
-      <c r="D3">
-        <v>6.5243584051852768</v>
-      </c>
-      <c r="E3">
-        <v>10.66378693577874</v>
-      </c>
-      <c r="F3">
-        <v>5.9108491628742268</v>
-      </c>
-      <c r="G3">
-        <v>8.6530063322624837</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E11">
+        <v>7.0735619083957214E-5</v>
+      </c>
+      <c r="F11">
+        <v>9.5790542361658923E-5</v>
+      </c>
+      <c r="G11">
+        <v>8.2633969685535298E-4</v>
+      </c>
+      <c r="H11">
+        <v>9.3231598960229493E-4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>7.5770241734047724E-5</v>
+      </c>
+      <c r="F12">
+        <v>1.031359690016503E-4</v>
+      </c>
+      <c r="G12">
+        <v>3.3983802117998332E-3</v>
+      </c>
+      <c r="H12">
+        <v>4.0401287152056643E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>7.4704233428654968E-5</v>
+      </c>
+      <c r="F13">
+        <v>1.004106864111735E-4</v>
+      </c>
+      <c r="G13">
+        <v>2.9358292992731931E-4</v>
+      </c>
+      <c r="H13">
+        <v>3.3494922770376889E-4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.38621964364132988</v>
+      </c>
+      <c r="F14">
+        <v>0.55753624313353622</v>
+      </c>
+      <c r="G14">
+        <v>2.5683965010864509</v>
+      </c>
+      <c r="H14">
+        <v>2.9029633708504532</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>0.48882249889545182</v>
+      </c>
+      <c r="F15">
+        <v>0.75055893083780323</v>
+      </c>
+      <c r="G15">
+        <v>2.5010635858704622</v>
+      </c>
+      <c r="H15">
+        <v>3.0309736026265028</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.50126915642113279</v>
+      </c>
+      <c r="F16">
+        <v>0.74545911980273083</v>
+      </c>
+      <c r="G16">
+        <v>3.0692166312929392</v>
+      </c>
+      <c r="H16">
+        <v>3.5534299144046551</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>